--- a/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt_EmpregadoRecursos.xlsx
+++ b/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt_EmpregadoRecursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GITHUB\Hydra.Such.Portal\Hydra.Such.Portal\Hydra.Such.Portal\wwwroot\Upload\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660A95AD-ACB4-41BA-B387-CFB1D9FC35B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29B86DE-F3A4-4E25-A7B7-1F08DD38089D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
-  <si>
-    <t>CHAVE-Nº Empregado</t>
-  </si>
-  <si>
-    <t>CHAVE-Recurso</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Nº Empregado</t>
   </si>
@@ -34,73 +28,55 @@
     <t>Recurso</t>
   </si>
   <si>
-    <t>Recurso Família</t>
-  </si>
-  <si>
     <t>Criado Por</t>
   </si>
   <si>
     <t>Data-Hora Criação</t>
   </si>
   <si>
-    <t>00219</t>
+    <t>RMO00356</t>
+  </si>
+  <si>
+    <t>ARomao@such.pt</t>
+  </si>
+  <si>
+    <t>06/07/2018 15:47:20</t>
+  </si>
+  <si>
+    <t>00353</t>
+  </si>
+  <si>
+    <t>RMO00308</t>
+  </si>
+  <si>
+    <t>06/07/2018 15:47:21</t>
+  </si>
+  <si>
+    <t>00473</t>
+  </si>
+  <si>
+    <t>RMO00311</t>
+  </si>
+  <si>
+    <t>06/07/2018 15:47:22</t>
+  </si>
+  <si>
+    <t>00522</t>
+  </si>
+  <si>
+    <t>RMO00334</t>
+  </si>
+  <si>
+    <t>104621</t>
   </si>
   <si>
     <t>RMO00296</t>
   </si>
   <si>
-    <t>AER</t>
-  </si>
-  <si>
-    <t>ARomao@such.pt</t>
-  </si>
-  <si>
-    <t>06/07/2018 13:58:15</t>
-  </si>
-  <si>
-    <t>00241</t>
+    <t>06/07/2018 15:47:19</t>
   </si>
   <si>
     <t>RMO00298</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>00314</t>
-  </si>
-  <si>
-    <t>RMO00356</t>
-  </si>
-  <si>
-    <t>SCT</t>
-  </si>
-  <si>
-    <t>00353</t>
-  </si>
-  <si>
-    <t>RMO00308</t>
-  </si>
-  <si>
-    <t>LPC</t>
-  </si>
-  <si>
-    <t>00473</t>
-  </si>
-  <si>
-    <t>RMO00311</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>00522</t>
-  </si>
-  <si>
-    <t>RMO00334</t>
-  </si>
-  <si>
-    <t>DPO</t>
   </si>
 </sst>
 </file>
@@ -452,19 +428,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8" hidden="1" collapsed="1"/>
-    <col min="5" max="7" width="8" hidden="1" collapsed="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,152 +455,89 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>104621</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>104621</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>104621</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
